--- a/hr/employee/src/main/resources/workbooks/employee.xlsx
+++ b/hr/employee/src/main/resources/workbooks/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\marci\hr\employee\src\main\resources\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AFA3DB-192C-486A-8659-C03144595E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28F4396-D66E-483D-92AC-25FBDEA7C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>fullName</t>
   </si>
@@ -37,14 +37,79 @@
   </si>
   <si>
     <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>edwina95</t>
+  </si>
+  <si>
+    <t>leo.walsh91</t>
+  </si>
+  <si>
+    <t>kiara.collier</t>
+  </si>
+  <si>
+    <t>Admin Jack</t>
+  </si>
+  <si>
+    <t>Edwina</t>
+  </si>
+  <si>
+    <t>Leo Walsh</t>
+  </si>
+  <si>
+    <t>Kiara Collier</t>
+  </si>
+  <si>
+    <t>Jack Jack</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>28/03/2000</t>
+  </si>
+  <si>
+    <t>29/02/2000</t>
+  </si>
+  <si>
+    <t>12/09/2000</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>METADATA: Employee Init Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userName is from Account </t>
+  </si>
+  <si>
+    <t>03/12/2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,33 +425,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>382319487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>905427980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>580124839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>904893167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>